--- a/medicine/Enfance/Steve_Frazee/Steve_Frazee.xlsx
+++ b/medicine/Enfance/Steve_Frazee/Steve_Frazee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steve Frazee, né le 28 septembre 1909 à Salida dans le Colorado et mort le 21 août 1992[1], est un écrivain et un scénariste américain, auteur de roman policier et de roman western.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steve Frazee, né le 28 septembre 1909 à Salida dans le Colorado et mort le 21 août 1992, est un écrivain et un scénariste américain, auteur de roman policier et de roman western.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entrepreneur, spécialiste de la construction et de l'extraction de minerai, il travaille dans ce secteur avant et pendant la Seconde Guerre mondiale. Après la guerre, il devient inspecteur en construction à Salida, sa ville natale.
-Après la publication d'une première nouvelle dans le pulp Short Stories en décembre 1936, il faut attendre juillet 1947 pour la parution d'une seconde histoire. À partir de janvier 1948, il fait paraître à un rythme très soutenu une soixantaine de nouvelles appartenant presque toutes au genre du western. L'une de ses dernières nouvelles, intitulée En bonne et due forme (All Legal and Proper), obtient en 1961 le Western Heritage Award[2].
-En parallèle, il se lance dans le roman dès 1953 avec la publication de Shining Mountains. La plupart de ses romans sont également des westerns, notamment La Loi du jupon (A Gun for Brag’s Woman), une « passionnante histoire, bien éloignée des chevauchées et des fusillades des westerns traditionnels »[3], selon Claude Mesplède, et La Piste des Cherokees (Many Rivers to Cross), novélisation du scénario de L'Aventure fantastique. Il a aussi collaboré à Lassie, la célèbre série de littérature d'enfance et de jeunesse.
+Après la publication d'une première nouvelle dans le pulp Short Stories en décembre 1936, il faut attendre juillet 1947 pour la parution d'une seconde histoire. À partir de janvier 1948, il fait paraître à un rythme très soutenu une soixantaine de nouvelles appartenant presque toutes au genre du western. L'une de ses dernières nouvelles, intitulée En bonne et due forme (All Legal and Proper), obtient en 1961 le Western Heritage Award.
+En parallèle, il se lance dans le roman dès 1953 avec la publication de Shining Mountains. La plupart de ses romans sont également des westerns, notamment La Loi du jupon (A Gun for Brag’s Woman), une « passionnante histoire, bien éloignée des chevauchées et des fusillades des westerns traditionnels », selon Claude Mesplède, et La Piste des Cherokees (Many Rivers to Cross), novélisation du scénario de L'Aventure fantastique. Il a aussi collaboré à Lassie, la célèbre série de littérature d'enfance et de jeunesse.
 En 1955 et 1956, il est président de la Western Writers of America et le vice-président en 1962 et 1963.
 </t>
         </is>
@@ -547,14 +561,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Série Lassie
-The Mystery of the Bristlecone Pine, 1962 Publié en français sous le titre Lassie donne l'alarme..., Paris, Hachette, « Idéal-Bibliothèque », 1973
+          <t>Série Lassie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Mystery of the Bristlecone Pine, 1962 Publié en français sous le titre Lassie donne l'alarme..., Paris, Hachette, « Idéal-Bibliothèque », 1973
 The Secret of Smelters' Cave, 1968 Publié en français sous le titre Lassie et les lingots d'or, Paris, Hachette, « Idéal-Bibliothèque », 1972
 Trouble at Panter's Lake, 1972 Publié en français sous le titre Lassie chez les bêtes sauvages, Paris, Hachette, « Idéal-Bibliothèque », 1975
 Lost in the Snow, 1979
-Lassie, 1982
-Autres romans
-Shining Mountains, 1953
+Lassie, 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Steve_Frazee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Steve_Frazee</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Shining Mountains, 1953
 The Sky Block, 1953
 Flight 409, 1953
 Many Rivers to Cross, 1955 (novélisation du scénario de L'Aventure fantastique) Publié en français sous le titre La Piste des Cherokees, Paris, Librairie des Champs-Élysées, « Le Masque-Western » no 110, 1962
@@ -594,13 +647,82 @@
 Death Rides This Trail, 2000
 Ghost Mine, 2000
 Tumbling Range Woman, 2002
-Spur to the Smoke, 2003
-Recueils de nouvelles
-The Best Western Stories of Steve Frazee, 1989
+Spur to the Smoke, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Steve_Frazee</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Steve_Frazee</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Best Western Stories of Steve Frazee, 1989
 Voices in the Hill, 2002
 Nights of Terror, 2003
-Look Behind Every Hill, 2006
-Nouvelles
+Look Behind Every Hill, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Steve_Frazee</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Steve_Frazee</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Planked Miner (1936)
 Shotguns at Shavano (1947)
 Cabin Fever (1948)
@@ -671,40 +793,79 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Steve_Frazee</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Steve_Frazee</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au cinéma
-1955 : L'Aventure fantastique, film américain réalisé par Roy Rowland
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1955 : L'Aventure fantastique, film américain réalisé par Roy Rowland
 1956 : Running Target, film américain réalisé par Marvin R. Weinstein, adaptation du roman éponyme
 1958 : High Hell (en), film américain réalisé par Burt Balaban, adaptation de High Cage
 1958 : Sur la piste de la mort, film américain réalisé par Charles F. Haas
-1961 : Le Trésor des sept collines, film américain réalisé par Gordon Douglas, adaptation du roman éponyme
-À la télévision
-1954 : Syblock, épisode de la série télévisée Robert Montgomery Presents (en) réalisé par Norman Felton, adaptation du roman éponyme
+1961 : Le Trésor des sept collines, film américain réalisé par Gordon Douglas, adaptation du roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Steve_Frazee</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Steve_Frazee</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1954 : Syblock, épisode de la série télévisée Robert Montgomery Presents (en) réalisé par Norman Felton, adaptation du roman éponyme
 1956 - 1957 : The Bounty Killers et Big Ghost Basin, épisodes de la série télévisée Cheyenne
 1957 : There Were Four, épisode de la série télévisée Zane Grey Theater réalisé par Christian Nyby
 1959 - 1960 : série télévisée The Alaskans (en)
@@ -713,31 +874,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Steve_Frazee</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Steve_Frazee</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Claude Mesplède, Les Années Série noire vol.3 (1966-1972) Encrage « Travaux » no 22, 1994
 Claude Mesplède et Jean-Jacques Schleret, SN, voyage au bout de la Noire : inventaire de 732 auteurs et de leurs œuvres publiés en séries Noire et Blème : suivi d'une filmographie complète, Paris, Futuropolis, 1982 (OCLC 11972030), p. 143.</t>
